--- a/target/classes/ARC-API-STG.xlsx
+++ b/target/classes/ARC-API-STG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="224">
   <si>
     <t>FileID</t>
   </si>
@@ -687,6 +687,12 @@
   </si>
   <si>
     <t>ACS2SS103L-1000140426</t>
+  </si>
+  <si>
+    <t>1000140437</t>
+  </si>
+  <si>
+    <t>1000140440</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1170,7 @@
     <col min="25" max="25" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.10546875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="28.9140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="36.16015625" collapsed="true"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1259,7 +1265,7 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
         <v>210</v>
